--- a/cycle/daily_limit_up_market/20250109.xlsx
+++ b/cycle/daily_limit_up_market/20250109.xlsx
@@ -533,34 +533,34 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>000573</t>
+          <t>002733</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>粤宏远Ａ</t>
+          <t>雄韬股份</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10.06564617156982</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>5.03</v>
+        <v>22.77</v>
       </c>
       <c r="G2" t="n">
-        <v>1169169680</v>
+        <v>94433452</v>
       </c>
       <c r="H2" t="n">
-        <v>3183813039.57</v>
+        <v>8399005022.43</v>
       </c>
       <c r="I2" t="n">
-        <v>3210551458.24</v>
+        <v>8748573546.24</v>
       </c>
       <c r="J2" t="n">
-        <v>37.19230651855469</v>
+        <v>1.124340891838074</v>
       </c>
       <c r="K2" t="n">
-        <v>13295854</v>
+        <v>459364257</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -569,11 +569,11 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>134927</t>
+          <t>092500</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -585,7 +585,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>房地产开</t>
+          <t>电池</t>
         </is>
       </c>
     </row>
@@ -598,34 +598,34 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>002733</t>
+          <t>000573</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>雄韬股份</t>
+          <t>粤宏远Ａ</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>10.06564617156982</v>
       </c>
       <c r="F3" t="n">
-        <v>22.77</v>
+        <v>5.03</v>
       </c>
       <c r="G3" t="n">
-        <v>94433452</v>
+        <v>1169169680</v>
       </c>
       <c r="H3" t="n">
-        <v>8399005022.43</v>
+        <v>3183813039.57</v>
       </c>
       <c r="I3" t="n">
-        <v>8748573546.24</v>
+        <v>3210551458.24</v>
       </c>
       <c r="J3" t="n">
-        <v>1.124340891838074</v>
+        <v>37.19230651855469</v>
       </c>
       <c r="K3" t="n">
-        <v>459364257</v>
+        <v>13295854</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -634,11 +634,11 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>092500</t>
+          <t>134927</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>电池</t>
+          <t>房地产开</t>
         </is>
       </c>
     </row>
@@ -793,34 +793,34 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>603063</t>
+          <t>605033</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>禾望电气</t>
+          <t>美邦股份</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>9.992132186889648</v>
+        <v>10.01548767089844</v>
       </c>
       <c r="F6" t="n">
-        <v>27.96</v>
+        <v>21.31</v>
       </c>
       <c r="G6" t="n">
-        <v>3012174192</v>
+        <v>142871330</v>
       </c>
       <c r="H6" t="n">
-        <v>12414388998.84</v>
+        <v>2881112000</v>
       </c>
       <c r="I6" t="n">
-        <v>12414388970.88</v>
+        <v>2881112000</v>
       </c>
       <c r="J6" t="n">
-        <v>24.32952499389648</v>
+        <v>4.965671062469482</v>
       </c>
       <c r="K6" t="n">
-        <v>56055801</v>
+        <v>66810174</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -829,23 +829,23 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>135928</t>
+          <t>132855</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>4/4</t>
+          <t>6/6</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>风电设备</t>
+          <t>农药兽药</t>
         </is>
       </c>
     </row>
@@ -858,34 +858,34 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>605033</t>
+          <t>603269</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>美邦股份</t>
+          <t>海鸥股份</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>10.01548767089844</v>
+        <v>9.978616714477539</v>
       </c>
       <c r="F7" t="n">
-        <v>21.31</v>
+        <v>15.43</v>
       </c>
       <c r="G7" t="n">
-        <v>142871330</v>
+        <v>108642723</v>
       </c>
       <c r="H7" t="n">
-        <v>2881112000</v>
+        <v>3402885555.11</v>
       </c>
       <c r="I7" t="n">
-        <v>2881112000</v>
+        <v>3402885555.11</v>
       </c>
       <c r="J7" t="n">
-        <v>4.965671062469482</v>
+        <v>3.192664623260498</v>
       </c>
       <c r="K7" t="n">
-        <v>66810174</v>
+        <v>182526006</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -894,23 +894,23 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>132855</t>
+          <t>092501</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>6/6</t>
+          <t>10/5</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>农药兽药</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -923,34 +923,34 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>603269</t>
+          <t>603063</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>海鸥股份</t>
+          <t>禾望电气</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>9.978616714477539</v>
+        <v>9.992132186889648</v>
       </c>
       <c r="F8" t="n">
-        <v>15.43</v>
+        <v>27.96</v>
       </c>
       <c r="G8" t="n">
-        <v>108642723</v>
+        <v>3012174192</v>
       </c>
       <c r="H8" t="n">
-        <v>3402885555.11</v>
+        <v>12414388998.84</v>
       </c>
       <c r="I8" t="n">
-        <v>3402885555.11</v>
+        <v>12414388970.88</v>
       </c>
       <c r="J8" t="n">
-        <v>3.192664623260498</v>
+        <v>24.32952499389648</v>
       </c>
       <c r="K8" t="n">
-        <v>182526006</v>
+        <v>56055801</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -959,15 +959,15 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>092501</t>
+          <t>135928</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>10/5</t>
+          <t>4/4</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -975,7 +975,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>风电设备</t>
         </is>
       </c>
     </row>
@@ -1053,34 +1053,34 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>600858</t>
+          <t>603015</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>银座股份</t>
+          <t>弘讯科技</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>9.948541641235352</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>6.41</v>
+        <v>11.99</v>
       </c>
       <c r="G10" t="n">
-        <v>346586480</v>
+        <v>114308619</v>
       </c>
       <c r="H10" t="n">
-        <v>3317482865.89</v>
+        <v>4846585810</v>
       </c>
       <c r="I10" t="n">
-        <v>3333626854.72</v>
+        <v>4846585905.92</v>
       </c>
       <c r="J10" t="n">
-        <v>10.45287036895752</v>
+        <v>2.35853910446167</v>
       </c>
       <c r="K10" t="n">
-        <v>60035002</v>
+        <v>76499041</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1089,11 +1089,11 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>093050</t>
+          <t>092502</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>商业百货</t>
+          <t>专用设备</t>
         </is>
       </c>
     </row>
@@ -1118,34 +1118,34 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>603015</t>
+          <t>600858</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>弘讯科技</t>
+          <t>银座股份</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>9.948541641235352</v>
       </c>
       <c r="F11" t="n">
-        <v>11.99</v>
+        <v>6.41</v>
       </c>
       <c r="G11" t="n">
-        <v>114308619</v>
+        <v>346586480</v>
       </c>
       <c r="H11" t="n">
-        <v>4846585810</v>
+        <v>3317482865.89</v>
       </c>
       <c r="I11" t="n">
-        <v>4846585905.92</v>
+        <v>3333626854.72</v>
       </c>
       <c r="J11" t="n">
-        <v>2.35853910446167</v>
+        <v>10.45287036895752</v>
       </c>
       <c r="K11" t="n">
-        <v>76499041</v>
+        <v>60035002</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1154,11 +1154,11 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>092502</t>
+          <t>093050</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>专用设备</t>
+          <t>商业百货</t>
         </is>
       </c>
     </row>
@@ -2808,34 +2808,34 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>603777</t>
+          <t>002571</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>来伊份</t>
+          <t>德力股份</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>10.0144100189209</v>
+        <v>10.04566192626953</v>
       </c>
       <c r="F37" t="n">
-        <v>15.27</v>
+        <v>4.82</v>
       </c>
       <c r="G37" t="n">
-        <v>427282064</v>
+        <v>143809259</v>
       </c>
       <c r="H37" t="n">
-        <v>5122472795.16</v>
+        <v>1437835826.16</v>
       </c>
       <c r="I37" t="n">
-        <v>5139269734.08</v>
+        <v>1889202393.28</v>
       </c>
       <c r="J37" t="n">
-        <v>8.620061874389648</v>
+        <v>10.18274307250977</v>
       </c>
       <c r="K37" t="n">
-        <v>92216659</v>
+        <v>216479696</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -2844,15 +2844,15 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>094254</t>
+          <t>094230</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>14/7</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="P37" t="n">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>食品饮料</t>
+          <t>家用轻工</t>
         </is>
       </c>
     </row>
@@ -2873,34 +2873,34 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>002571</t>
+          <t>603777</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>德力股份</t>
+          <t>来伊份</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>10.04566192626953</v>
+        <v>10.0144100189209</v>
       </c>
       <c r="F38" t="n">
-        <v>4.82</v>
+        <v>15.27</v>
       </c>
       <c r="G38" t="n">
-        <v>143809259</v>
+        <v>427282064</v>
       </c>
       <c r="H38" t="n">
-        <v>1437835826.16</v>
+        <v>5122472795.16</v>
       </c>
       <c r="I38" t="n">
-        <v>1889202393.28</v>
+        <v>5139269734.08</v>
       </c>
       <c r="J38" t="n">
-        <v>10.18274307250977</v>
+        <v>8.620061874389648</v>
       </c>
       <c r="K38" t="n">
-        <v>216479696</v>
+        <v>92216659</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2909,15 +2909,15 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>094230</t>
+          <t>094254</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>14/7</t>
         </is>
       </c>
       <c r="P38" t="n">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>家用轻工</t>
+          <t>食品饮料</t>
         </is>
       </c>
     </row>
@@ -20897,43 +20897,43 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>301603</t>
+          <t>001359</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>乔锋智能</t>
+          <t>平安电工</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.5786163806915283</v>
+        <v>-0.6513409614562988</v>
       </c>
       <c r="F58" t="n">
-        <v>39.98</v>
+        <v>25.93</v>
       </c>
       <c r="G58" t="n">
-        <v>47.7</v>
+        <v>28.71</v>
       </c>
       <c r="H58" t="n">
-        <v>49352416</v>
+        <v>51182675</v>
       </c>
       <c r="I58" t="n">
-        <v>917226557.3</v>
+        <v>1202633400</v>
       </c>
       <c r="J58" t="n">
-        <v>4827984800</v>
+        <v>4810097068.45</v>
       </c>
       <c r="K58" t="n">
-        <v>5.366108894348145</v>
+        <v>4.252011775970459</v>
       </c>
       <c r="L58" t="n">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="M58" s="2" t="n">
-        <v>45483</v>
+        <v>45492</v>
       </c>
       <c r="N58" s="2" t="n">
-        <v>45483</v>
+        <v>45379</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -20945,7 +20945,7 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>非金属材</t>
         </is>
       </c>
     </row>
@@ -20958,43 +20958,43 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>603285</t>
+          <t>001379</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>键邦股份</t>
+          <t>腾达科技</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.5727923512458801</v>
+        <v>-0.04909180104732513</v>
       </c>
       <c r="F59" t="n">
-        <v>21.07</v>
+        <v>20.36</v>
       </c>
       <c r="G59" t="n">
-        <v>23.05</v>
+        <v>22.41</v>
       </c>
       <c r="H59" t="n">
-        <v>21863452</v>
+        <v>44831037</v>
       </c>
       <c r="I59" t="n">
-        <v>842800000</v>
+        <v>1018000000</v>
       </c>
       <c r="J59" t="n">
-        <v>3371200000</v>
+        <v>4072000000</v>
       </c>
       <c r="K59" t="n">
-        <v>2.585809946060181</v>
+        <v>4.385950088500977</v>
       </c>
       <c r="L59" t="n">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="M59" s="2" t="n">
-        <v>45478</v>
+        <v>45492</v>
       </c>
       <c r="N59" s="2" t="n">
-        <v>45478</v>
+        <v>45310</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -21006,7 +21006,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>化学制品</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -21019,43 +21019,43 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>603350</t>
+          <t>001387</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>安乃达</t>
+          <t>雪祺电气</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2.026184558868408</v>
+        <v>-2.681721925735474</v>
       </c>
       <c r="F60" t="n">
-        <v>32.73</v>
+        <v>13.79</v>
       </c>
       <c r="G60" t="n">
-        <v>35.29</v>
+        <v>15.59</v>
       </c>
       <c r="H60" t="n">
-        <v>86547523</v>
+        <v>78321380</v>
       </c>
       <c r="I60" t="n">
-        <v>949169999.9999999</v>
+        <v>612924130</v>
       </c>
       <c r="J60" t="n">
-        <v>3796680000</v>
+        <v>2451696520</v>
       </c>
       <c r="K60" t="n">
-        <v>9.186823844909668</v>
+        <v>12.77059459686279</v>
       </c>
       <c r="L60" t="n">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="M60" s="2" t="n">
-        <v>45476</v>
+        <v>45492</v>
       </c>
       <c r="N60" s="2" t="n">
-        <v>45476</v>
+        <v>45302</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -21067,7 +21067,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>电机</t>
+          <t>家电行业</t>
         </is>
       </c>
     </row>
@@ -21080,55 +21080,55 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>301580</t>
+          <t>001389</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>爱迪特</t>
+          <t>广合科技</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.1666049659252167</v>
+        <v>9.994110107421875</v>
       </c>
       <c r="F61" t="n">
-        <v>54.11</v>
+        <v>56.02</v>
       </c>
       <c r="G61" t="n">
-        <v>64.81999999999999</v>
+        <v>56.02</v>
       </c>
       <c r="H61" t="n">
-        <v>24696734</v>
+        <v>216679986</v>
       </c>
       <c r="I61" t="n">
-        <v>1029679860.02</v>
+        <v>2132681400</v>
       </c>
       <c r="J61" t="n">
-        <v>4118719385.97</v>
+        <v>23823345748.16</v>
       </c>
       <c r="K61" t="n">
-        <v>2.391112804412842</v>
+        <v>10.34510612487793</v>
       </c>
       <c r="L61" t="n">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="M61" s="2" t="n">
-        <v>45469</v>
+        <v>45492</v>
       </c>
       <c r="N61" s="2" t="n">
-        <v>45469</v>
+        <v>45384</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>医疗器械</t>
+          <t>电子元件</t>
         </is>
       </c>
     </row>
@@ -21141,43 +21141,43 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>603381</t>
+          <t>300784</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>永臻股份</t>
+          <t>利安科技</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-0.5218216180801392</v>
+        <v>2.191196441650391</v>
       </c>
       <c r="F62" t="n">
-        <v>20.97</v>
+        <v>52.7</v>
       </c>
       <c r="G62" t="n">
-        <v>23.19</v>
+        <v>61.88</v>
       </c>
       <c r="H62" t="n">
-        <v>23204510</v>
+        <v>46777970</v>
       </c>
       <c r="I62" t="n">
-        <v>1119435009.3</v>
+        <v>740962000</v>
       </c>
       <c r="J62" t="n">
-        <v>4975265156.219999</v>
+        <v>2963721520</v>
       </c>
       <c r="K62" t="n">
-        <v>2.065877437591553</v>
+        <v>6.304701328277588</v>
       </c>
       <c r="L62" t="n">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="M62" s="2" t="n">
-        <v>45469</v>
+        <v>45492</v>
       </c>
       <c r="N62" s="2" t="n">
-        <v>45469</v>
+        <v>45450</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -21189,7 +21189,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>光伏设备</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -21202,43 +21202,43 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>301565</t>
+          <t>301392</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>中仑新材</t>
+          <t>汇成真空</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.3409644365310669</v>
+        <v>0.257953554391861</v>
       </c>
       <c r="F63" t="n">
-        <v>20.6</v>
+        <v>58.3</v>
       </c>
       <c r="G63" t="n">
-        <v>24.64</v>
+        <v>69.78</v>
       </c>
       <c r="H63" t="n">
-        <v>62182224</v>
+        <v>119512955</v>
       </c>
       <c r="I63" t="n">
-        <v>1236206000</v>
+        <v>1311750000</v>
       </c>
       <c r="J63" t="n">
-        <v>8240206000.000001</v>
+        <v>5830000000</v>
       </c>
       <c r="K63" t="n">
-        <v>5.021313190460205</v>
+        <v>8.915870666503906</v>
       </c>
       <c r="L63" t="n">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="M63" s="2" t="n">
-        <v>45463</v>
+        <v>45492</v>
       </c>
       <c r="N63" s="2" t="n">
-        <v>45463</v>
+        <v>45448</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -21250,7 +21250,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>塑料制品</t>
+          <t>专用设备</t>
         </is>
       </c>
     </row>
@@ -21263,43 +21263,43 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>688692</t>
+          <t>301502</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>达梦数据</t>
+          <t>华阳智能</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3.704968929290771</v>
+        <v>-0.9582477807998657</v>
       </c>
       <c r="F64" t="n">
-        <v>333.93</v>
+        <v>43.41</v>
       </c>
       <c r="G64" t="n">
-        <v>386.4</v>
+        <v>52.6</v>
       </c>
       <c r="H64" t="n">
-        <v>249751655</v>
+        <v>71816024</v>
       </c>
       <c r="I64" t="n">
-        <v>5075736000</v>
+        <v>619504110</v>
       </c>
       <c r="J64" t="n">
-        <v>25378680000</v>
+        <v>2477994735</v>
       </c>
       <c r="K64" t="n">
-        <v>4.916388034820557</v>
+        <v>11.65076732635498</v>
       </c>
       <c r="L64" t="n">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="M64" s="2" t="n">
-        <v>45455</v>
+        <v>45492</v>
       </c>
       <c r="N64" s="2" t="n">
-        <v>45455</v>
+        <v>45324</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -21311,7 +21311,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>软件开发</t>
+          <t>电机</t>
         </is>
       </c>
     </row>
@@ -21324,43 +21324,43 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>300784</t>
+          <t>301536</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>利安科技</t>
+          <t>星宸科技</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2.191196441650391</v>
+        <v>-3.349397659301758</v>
       </c>
       <c r="F65" t="n">
-        <v>52.7</v>
+        <v>80.22</v>
       </c>
       <c r="G65" t="n">
-        <v>61.88</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H65" t="n">
-        <v>46777970</v>
+        <v>892974080</v>
       </c>
       <c r="I65" t="n">
-        <v>740962000</v>
+        <v>3039966340.74</v>
       </c>
       <c r="J65" t="n">
-        <v>2963721520</v>
+        <v>33777433200</v>
       </c>
       <c r="K65" t="n">
-        <v>6.304701328277588</v>
+        <v>28.7574634552002</v>
       </c>
       <c r="L65" t="n">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="M65" s="2" t="n">
-        <v>45450</v>
+        <v>45492</v>
       </c>
       <c r="N65" s="2" t="n">
-        <v>45450</v>
+        <v>45379</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -21372,7 +21372,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>塑料制品</t>
+          <t>半导体</t>
         </is>
       </c>
     </row>
@@ -21385,43 +21385,43 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>301392</t>
+          <t>301538</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>汇成真空</t>
+          <t>骏鼎达</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.257953554391861</v>
+        <v>0.2832861244678497</v>
       </c>
       <c r="F66" t="n">
-        <v>58.3</v>
+        <v>70.8</v>
       </c>
       <c r="G66" t="n">
-        <v>69.78</v>
+        <v>84.72</v>
       </c>
       <c r="H66" t="n">
-        <v>119512955</v>
+        <v>35141528</v>
       </c>
       <c r="I66" t="n">
-        <v>1311750000</v>
+        <v>991200000</v>
       </c>
       <c r="J66" t="n">
-        <v>5830000000</v>
+        <v>3964800000</v>
       </c>
       <c r="K66" t="n">
-        <v>8.915870666503906</v>
+        <v>3.531564235687256</v>
       </c>
       <c r="L66" t="n">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="M66" s="2" t="n">
-        <v>45448</v>
+        <v>45492</v>
       </c>
       <c r="N66" s="2" t="n">
-        <v>45448</v>
+        <v>45371</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -21433,7 +21433,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>专用设备</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -21446,43 +21446,43 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>920002</t>
+          <t>301539</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>万达轴承</t>
+          <t>宏鑫科技</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2.149574756622314</v>
+        <v>0.508187472820282</v>
       </c>
       <c r="F67" t="n">
-        <v>68.43000000000001</v>
+        <v>17.8</v>
       </c>
       <c r="G67" t="n">
-        <v>87.08</v>
+        <v>21.25</v>
       </c>
       <c r="H67" t="n">
-        <v>69057099</v>
+        <v>16092148</v>
       </c>
       <c r="I67" t="n">
-        <v>393472500.0000001</v>
+        <v>658600000</v>
       </c>
       <c r="J67" t="n">
-        <v>2224120071.6</v>
+        <v>2634400000</v>
       </c>
       <c r="K67" t="n">
-        <v>17.71088790893555</v>
+        <v>2.440656661987305</v>
       </c>
       <c r="L67" t="n">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="M67" s="2" t="n">
-        <v>45442</v>
+        <v>45492</v>
       </c>
       <c r="N67" s="2" t="n">
-        <v>45442</v>
+        <v>45397</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -21494,7 +21494,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>汽车零部</t>
         </is>
       </c>
     </row>
@@ -21507,43 +21507,43 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>301596</t>
+          <t>301565</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>瑞迪智驱</t>
+          <t>中仑新材</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1.592995047569275</v>
+        <v>0.3409644365310669</v>
       </c>
       <c r="F68" t="n">
-        <v>96.3</v>
+        <v>20.6</v>
       </c>
       <c r="G68" t="n">
-        <v>113.75</v>
+        <v>24.64</v>
       </c>
       <c r="H68" t="n">
-        <v>158281244</v>
+        <v>62182224</v>
       </c>
       <c r="I68" t="n">
-        <v>1326967583.4</v>
+        <v>1236206000</v>
       </c>
       <c r="J68" t="n">
-        <v>5307870333.599999</v>
+        <v>8240206000.000001</v>
       </c>
       <c r="K68" t="n">
-        <v>12.001145362854</v>
+        <v>5.021313190460205</v>
       </c>
       <c r="L68" t="n">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="M68" s="2" t="n">
-        <v>45425</v>
+        <v>45492</v>
       </c>
       <c r="N68" s="2" t="n">
-        <v>45425</v>
+        <v>45463</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -21555,7 +21555,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -21568,43 +21568,43 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>688530</t>
+          <t>301567</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>欧莱新材</t>
+          <t>贝隆精密</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.3456221222877502</v>
+        <v>-0.4092440903186798</v>
       </c>
       <c r="F69" t="n">
-        <v>17.42</v>
+        <v>41.37</v>
       </c>
       <c r="G69" t="n">
-        <v>20.83</v>
+        <v>49.85</v>
       </c>
       <c r="H69" t="n">
-        <v>17133389</v>
+        <v>25945316</v>
       </c>
       <c r="I69" t="n">
-        <v>557596187.72</v>
+        <v>744660000</v>
       </c>
       <c r="J69" t="n">
-        <v>2787980834.08</v>
+        <v>2978640000</v>
       </c>
       <c r="K69" t="n">
-        <v>3.061710834503174</v>
+        <v>3.460555553436279</v>
       </c>
       <c r="L69" t="n">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="M69" s="2" t="n">
-        <v>45421</v>
+        <v>45492</v>
       </c>
       <c r="N69" s="2" t="n">
-        <v>45421</v>
+        <v>45307</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -21616,7 +21616,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>半导体</t>
+          <t>消费电子</t>
         </is>
       </c>
     </row>
@@ -21629,43 +21629,43 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>301539</t>
+          <t>301577</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>宏鑫科技</t>
+          <t>美信科技</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.508187472820282</v>
+        <v>7.409430503845215</v>
       </c>
       <c r="F70" t="n">
-        <v>17.8</v>
+        <v>59</v>
       </c>
       <c r="G70" t="n">
-        <v>21.25</v>
+        <v>65.92</v>
       </c>
       <c r="H70" t="n">
-        <v>16092148</v>
+        <v>153924655</v>
       </c>
       <c r="I70" t="n">
-        <v>658600000</v>
+        <v>654613791</v>
       </c>
       <c r="J70" t="n">
-        <v>2634400000</v>
+        <v>2611340000</v>
       </c>
       <c r="K70" t="n">
-        <v>2.440656661987305</v>
+        <v>23.27286529541016</v>
       </c>
       <c r="L70" t="n">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="M70" s="2" t="n">
-        <v>45397</v>
+        <v>45492</v>
       </c>
       <c r="N70" s="2" t="n">
-        <v>45397</v>
+        <v>45315</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -21677,7 +21677,7 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>汽车零部</t>
+          <t>电子元件</t>
         </is>
       </c>
     </row>
@@ -21690,43 +21690,43 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>688691</t>
+          <t>301580</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>灿芯股份</t>
+          <t>爱迪特</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5.176260471343994</v>
+        <v>0.1666049659252167</v>
       </c>
       <c r="F71" t="n">
-        <v>70.70999999999999</v>
+        <v>54.11</v>
       </c>
       <c r="G71" t="n">
-        <v>80.68000000000001</v>
+        <v>64.81999999999999</v>
       </c>
       <c r="H71" t="n">
-        <v>271400576</v>
+        <v>24696734</v>
       </c>
       <c r="I71" t="n">
-        <v>1803105000</v>
+        <v>1029679860.02</v>
       </c>
       <c r="J71" t="n">
-        <v>8485199999.999999</v>
+        <v>4118719385.97</v>
       </c>
       <c r="K71" t="n">
-        <v>15.11844348907471</v>
+        <v>2.391112804412842</v>
       </c>
       <c r="L71" t="n">
-        <v>184</v>
+        <v>117</v>
       </c>
       <c r="M71" s="2" t="n">
-        <v>45393</v>
+        <v>45492</v>
       </c>
       <c r="N71" s="2" t="n">
-        <v>45393</v>
+        <v>45469</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -21738,7 +21738,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>半导体</t>
+          <t>医疗器械</t>
         </is>
       </c>
     </row>
@@ -21781,10 +21781,10 @@
         <v>6.330771446228027</v>
       </c>
       <c r="L72" t="n">
-        <v>187</v>
+        <v>117</v>
       </c>
       <c r="M72" s="2" t="n">
-        <v>45390</v>
+        <v>45492</v>
       </c>
       <c r="N72" s="2" t="n">
         <v>45390</v>
@@ -21812,55 +21812,55 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>001389</t>
+          <t>301588</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>广合科技</t>
+          <t>美新科技</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>9.994110107421875</v>
+        <v>0.05165288969874382</v>
       </c>
       <c r="F73" t="n">
-        <v>56.02</v>
+        <v>19.37</v>
       </c>
       <c r="G73" t="n">
-        <v>56.02</v>
+        <v>23.23</v>
       </c>
       <c r="H73" t="n">
-        <v>216679986</v>
+        <v>23723714</v>
       </c>
       <c r="I73" t="n">
-        <v>2132681400</v>
+        <v>460493702.24</v>
       </c>
       <c r="J73" t="n">
-        <v>23823345748.16</v>
+        <v>2302468394.98</v>
       </c>
       <c r="K73" t="n">
-        <v>10.34510612487793</v>
+        <v>5.146588802337646</v>
       </c>
       <c r="L73" t="n">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="M73" s="2" t="n">
-        <v>45384</v>
+        <v>45492</v>
       </c>
       <c r="N73" s="2" t="n">
-        <v>45384</v>
+        <v>45364</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>电子元件</t>
+          <t>家用轻工</t>
         </is>
       </c>
     </row>
@@ -21873,43 +21873,43 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>001359</t>
+          <t>301589</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>平安电工</t>
+          <t>诺瓦星云</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-0.6513409614562988</v>
+        <v>-0.3663883805274963</v>
       </c>
       <c r="F74" t="n">
-        <v>25.93</v>
+        <v>165.88</v>
       </c>
       <c r="G74" t="n">
-        <v>28.71</v>
+        <v>199.79</v>
       </c>
       <c r="H74" t="n">
-        <v>51182675</v>
+        <v>60252153</v>
       </c>
       <c r="I74" t="n">
-        <v>1202633400</v>
+        <v>3067054848</v>
       </c>
       <c r="J74" t="n">
-        <v>4810097068.45</v>
+        <v>15335274240</v>
       </c>
       <c r="K74" t="n">
-        <v>4.252011775970459</v>
+        <v>1.954871892929077</v>
       </c>
       <c r="L74" t="n">
-        <v>192</v>
+        <v>117</v>
       </c>
       <c r="M74" s="2" t="n">
-        <v>45379</v>
+        <v>45492</v>
       </c>
       <c r="N74" s="2" t="n">
-        <v>45379</v>
+        <v>45330</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -21921,7 +21921,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>非金属材</t>
+          <t>计算机设</t>
         </is>
       </c>
     </row>
@@ -21934,43 +21934,43 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>301536</t>
+          <t>301591</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>星宸科技</t>
+          <t>肯特股份</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>-3.349397659301758</v>
+        <v>1.74763035774231</v>
       </c>
       <c r="F75" t="n">
-        <v>80.22</v>
+        <v>34.35</v>
       </c>
       <c r="G75" t="n">
-        <v>99.59999999999999</v>
+        <v>40.51</v>
       </c>
       <c r="H75" t="n">
-        <v>892974080</v>
+        <v>44107178</v>
       </c>
       <c r="I75" t="n">
-        <v>3039966340.74</v>
+        <v>722380500</v>
       </c>
       <c r="J75" t="n">
-        <v>33777433200</v>
+        <v>2889522000</v>
       </c>
       <c r="K75" t="n">
-        <v>28.7574634552002</v>
+        <v>6.106248378753662</v>
       </c>
       <c r="L75" t="n">
-        <v>192</v>
+        <v>117</v>
       </c>
       <c r="M75" s="2" t="n">
-        <v>45379</v>
+        <v>45492</v>
       </c>
       <c r="N75" s="2" t="n">
-        <v>45379</v>
+        <v>45350</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -21982,7 +21982,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>半导体</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -21995,43 +21995,43 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>301538</t>
+          <t>301596</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>骏鼎达</t>
+          <t>瑞迪智驱</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.2832861244678497</v>
+        <v>1.592995047569275</v>
       </c>
       <c r="F76" t="n">
-        <v>70.8</v>
+        <v>96.3</v>
       </c>
       <c r="G76" t="n">
-        <v>84.72</v>
+        <v>113.75</v>
       </c>
       <c r="H76" t="n">
-        <v>35141528</v>
+        <v>158281244</v>
       </c>
       <c r="I76" t="n">
-        <v>991200000</v>
+        <v>1326967583.4</v>
       </c>
       <c r="J76" t="n">
-        <v>3964800000</v>
+        <v>5307870333.599999</v>
       </c>
       <c r="K76" t="n">
-        <v>3.531564235687256</v>
+        <v>12.001145362854</v>
       </c>
       <c r="L76" t="n">
-        <v>198</v>
+        <v>117</v>
       </c>
       <c r="M76" s="2" t="n">
-        <v>45371</v>
+        <v>45492</v>
       </c>
       <c r="N76" s="2" t="n">
-        <v>45371</v>
+        <v>45425</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -22043,7 +22043,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>塑料制品</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -22056,43 +22056,43 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>603344</t>
+          <t>301603</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>星德胜</t>
+          <t>乔锋智能</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-0.3550821244716644</v>
+        <v>0.5786163806915283</v>
       </c>
       <c r="F77" t="n">
-        <v>22.45</v>
+        <v>39.98</v>
       </c>
       <c r="G77" t="n">
-        <v>24.78</v>
+        <v>47.7</v>
       </c>
       <c r="H77" t="n">
-        <v>44676928</v>
+        <v>49352416</v>
       </c>
       <c r="I77" t="n">
-        <v>1091805125.25</v>
+        <v>917226557.3</v>
       </c>
       <c r="J77" t="n">
-        <v>4367220501</v>
+        <v>4827984800</v>
       </c>
       <c r="K77" t="n">
-        <v>4.093303680419922</v>
+        <v>5.366108894348145</v>
       </c>
       <c r="L77" t="n">
-        <v>198</v>
+        <v>117</v>
       </c>
       <c r="M77" s="2" t="n">
-        <v>45371</v>
+        <v>45492</v>
       </c>
       <c r="N77" s="2" t="n">
-        <v>45371</v>
+        <v>45483</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -22104,7 +22104,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>电机</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -22117,43 +22117,43 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>301588</t>
+          <t>601033</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>美新科技</t>
+          <t>永兴股份</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.05165288969874382</v>
+        <v>0.4424778819084167</v>
       </c>
       <c r="F78" t="n">
-        <v>19.37</v>
+        <v>13.62</v>
       </c>
       <c r="G78" t="n">
-        <v>23.23</v>
+        <v>14.92</v>
       </c>
       <c r="H78" t="n">
-        <v>23723714</v>
+        <v>59972194</v>
       </c>
       <c r="I78" t="n">
-        <v>460493702.24</v>
+        <v>2043000000</v>
       </c>
       <c r="J78" t="n">
-        <v>2302468394.98</v>
+        <v>12258000000</v>
       </c>
       <c r="K78" t="n">
-        <v>5.146588802337646</v>
+        <v>2.913345336914062</v>
       </c>
       <c r="L78" t="n">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="M78" s="2" t="n">
-        <v>45364</v>
+        <v>45492</v>
       </c>
       <c r="N78" s="2" t="n">
-        <v>45364</v>
+        <v>45309</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -22165,7 +22165,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>家用轻工</t>
+          <t>环保行业</t>
         </is>
       </c>
     </row>
@@ -22178,43 +22178,43 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>688695</t>
+          <t>603082</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>中创股份</t>
+          <t>北自科技</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.3884180784225464</v>
+        <v>1.539882898330688</v>
       </c>
       <c r="F79" t="n">
-        <v>28.43</v>
+        <v>32.97</v>
       </c>
       <c r="G79" t="n">
-        <v>33.98</v>
+        <v>35.72</v>
       </c>
       <c r="H79" t="n">
-        <v>12369273</v>
+        <v>69795122</v>
       </c>
       <c r="I79" t="n">
-        <v>544052429.23</v>
+        <v>1069728794.4</v>
       </c>
       <c r="J79" t="n">
-        <v>2418010676.54</v>
+        <v>5348642092.71</v>
       </c>
       <c r="K79" t="n">
-        <v>2.267789840698242</v>
+        <v>6.525973320007324</v>
       </c>
       <c r="L79" t="n">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="M79" s="2" t="n">
-        <v>45364</v>
+        <v>45492</v>
       </c>
       <c r="N79" s="2" t="n">
-        <v>45364</v>
+        <v>45321</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -22226,7 +22226,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>软件开发</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -22239,43 +22239,43 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>603341</t>
+          <t>603285</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>龙旗科技</t>
+          <t>键邦股份</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-0.5384238958358765</v>
+        <v>0.5727923512458801</v>
       </c>
       <c r="F80" t="n">
-        <v>40.64</v>
+        <v>21.07</v>
       </c>
       <c r="G80" t="n">
-        <v>44.95</v>
+        <v>23.05</v>
       </c>
       <c r="H80" t="n">
-        <v>168050432</v>
+        <v>21863452</v>
       </c>
       <c r="I80" t="n">
-        <v>1950720000</v>
+        <v>842800000</v>
       </c>
       <c r="J80" t="n">
-        <v>18901523548.16</v>
+        <v>3371200000</v>
       </c>
       <c r="K80" t="n">
-        <v>8.583060264587402</v>
+        <v>2.585809946060181</v>
       </c>
       <c r="L80" t="n">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="M80" s="2" t="n">
-        <v>45352</v>
+        <v>45492</v>
       </c>
       <c r="N80" s="2" t="n">
-        <v>45352</v>
+        <v>45478</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -22287,7 +22287,7 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>消费电子</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -22300,43 +22300,43 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>301591</t>
+          <t>603312</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>肯特股份</t>
+          <t>西典新能</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1.74763035774231</v>
+        <v>-1.298299789428711</v>
       </c>
       <c r="F81" t="n">
-        <v>34.35</v>
+        <v>31.93</v>
       </c>
       <c r="G81" t="n">
-        <v>40.51</v>
+        <v>35.59</v>
       </c>
       <c r="H81" t="n">
-        <v>44107178</v>
+        <v>23766054</v>
       </c>
       <c r="I81" t="n">
-        <v>722380500</v>
+        <v>1113927924.66</v>
       </c>
       <c r="J81" t="n">
-        <v>2889522000</v>
+        <v>5159888000</v>
       </c>
       <c r="K81" t="n">
-        <v>6.106248378753662</v>
+        <v>2.111414670944214</v>
       </c>
       <c r="L81" t="n">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="M81" s="2" t="n">
-        <v>45350</v>
+        <v>45492</v>
       </c>
       <c r="N81" s="2" t="n">
-        <v>45350</v>
+        <v>45302</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
@@ -22348,7 +22348,7 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>塑料制品</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -22361,43 +22361,43 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>301589</t>
+          <t>603325</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>诺瓦星云</t>
+          <t>博隆技术</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>-0.3663883805274963</v>
+        <v>-0.8287292718887329</v>
       </c>
       <c r="F82" t="n">
-        <v>165.88</v>
+        <v>71.8</v>
       </c>
       <c r="G82" t="n">
-        <v>199.79</v>
+        <v>79.64</v>
       </c>
       <c r="H82" t="n">
-        <v>60252153</v>
+        <v>17645241</v>
       </c>
       <c r="I82" t="n">
-        <v>3067054848</v>
+        <v>1196906000</v>
       </c>
       <c r="J82" t="n">
-        <v>15335274240</v>
+        <v>4786906000</v>
       </c>
       <c r="K82" t="n">
-        <v>1.954871892929077</v>
+        <v>1.469106197357178</v>
       </c>
       <c r="L82" t="n">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="M82" s="2" t="n">
-        <v>45330</v>
+        <v>45492</v>
       </c>
       <c r="N82" s="2" t="n">
-        <v>45330</v>
+        <v>45301</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -22409,7 +22409,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>计算机设</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -22422,43 +22422,43 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>688584</t>
+          <t>603341</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>上海合晶</t>
+          <t>龙旗科技</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.7734806537628174</v>
+        <v>-0.5384238958358765</v>
       </c>
       <c r="F83" t="n">
-        <v>18.24</v>
+        <v>40.64</v>
       </c>
       <c r="G83" t="n">
-        <v>21.72</v>
+        <v>44.95</v>
       </c>
       <c r="H83" t="n">
-        <v>38353929</v>
+        <v>168050432</v>
       </c>
       <c r="I83" t="n">
-        <v>1026630976.32</v>
+        <v>1950720000</v>
       </c>
       <c r="J83" t="n">
-        <v>12137960340.48</v>
+        <v>18901523548.16</v>
       </c>
       <c r="K83" t="n">
-        <v>3.703310012817383</v>
+        <v>8.583060264587402</v>
       </c>
       <c r="L83" t="n">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="M83" s="2" t="n">
-        <v>45330</v>
+        <v>45492</v>
       </c>
       <c r="N83" s="2" t="n">
-        <v>45330</v>
+        <v>45352</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -22470,7 +22470,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>半导体</t>
+          <t>消费电子</t>
         </is>
       </c>
     </row>
@@ -22483,43 +22483,43 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>688709</t>
+          <t>603344</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>成都华微</t>
+          <t>星德胜</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>2.435530185699463</v>
+        <v>-0.3550821244716644</v>
       </c>
       <c r="F84" t="n">
-        <v>28.6</v>
+        <v>22.45</v>
       </c>
       <c r="G84" t="n">
-        <v>33.5</v>
+        <v>24.78</v>
       </c>
       <c r="H84" t="n">
-        <v>217047351</v>
+        <v>44676928</v>
       </c>
       <c r="I84" t="n">
-        <v>2205552320.4</v>
+        <v>1091805125.25</v>
       </c>
       <c r="J84" t="n">
-        <v>18213824886.4</v>
+        <v>4367220501</v>
       </c>
       <c r="K84" t="n">
-        <v>9.750491142272949</v>
+        <v>4.093303680419922</v>
       </c>
       <c r="L84" t="n">
-        <v>222</v>
+        <v>117</v>
       </c>
       <c r="M84" s="2" t="n">
-        <v>45329</v>
+        <v>45492</v>
       </c>
       <c r="N84" s="2" t="n">
-        <v>45329</v>
+        <v>45371</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -22531,7 +22531,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>半导体</t>
+          <t>电机</t>
         </is>
       </c>
     </row>
@@ -22544,43 +22544,43 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>301502</t>
+          <t>603350</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>华阳智能</t>
+          <t>安乃达</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>-0.9582477807998657</v>
+        <v>2.026184558868408</v>
       </c>
       <c r="F85" t="n">
-        <v>43.41</v>
+        <v>32.73</v>
       </c>
       <c r="G85" t="n">
-        <v>52.6</v>
+        <v>35.29</v>
       </c>
       <c r="H85" t="n">
-        <v>71816024</v>
+        <v>86547523</v>
       </c>
       <c r="I85" t="n">
-        <v>619504110</v>
+        <v>949169999.9999999</v>
       </c>
       <c r="J85" t="n">
-        <v>2477994735</v>
+        <v>3796680000</v>
       </c>
       <c r="K85" t="n">
-        <v>11.65076732635498</v>
+        <v>9.186823844909668</v>
       </c>
       <c r="L85" t="n">
-        <v>225</v>
+        <v>117</v>
       </c>
       <c r="M85" s="2" t="n">
-        <v>45324</v>
+        <v>45492</v>
       </c>
       <c r="N85" s="2" t="n">
-        <v>45324</v>
+        <v>45476</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -22605,43 +22605,43 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>603082</t>
+          <t>603375</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>北自科技</t>
+          <t>盛景微</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1.539882898330688</v>
+        <v>0.7655231356620789</v>
       </c>
       <c r="F86" t="n">
-        <v>32.97</v>
+        <v>35.54</v>
       </c>
       <c r="G86" t="n">
-        <v>35.72</v>
+        <v>38.8</v>
       </c>
       <c r="H86" t="n">
-        <v>69795122</v>
+        <v>38227901</v>
       </c>
       <c r="I86" t="n">
-        <v>1069728794.4</v>
+        <v>715538690.36</v>
       </c>
       <c r="J86" t="n">
-        <v>5348642092.71</v>
+        <v>3577693345.18</v>
       </c>
       <c r="K86" t="n">
-        <v>6.525973320007324</v>
+        <v>5.320857524871826</v>
       </c>
       <c r="L86" t="n">
-        <v>228</v>
+        <v>117</v>
       </c>
       <c r="M86" s="2" t="n">
-        <v>45321</v>
+        <v>45492</v>
       </c>
       <c r="N86" s="2" t="n">
-        <v>45321</v>
+        <v>45315</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -22653,7 +22653,7 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>电子元件</t>
         </is>
       </c>
     </row>
@@ -22666,43 +22666,43 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>301577</t>
+          <t>603381</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>美信科技</t>
+          <t>永臻股份</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>7.409430503845215</v>
+        <v>-0.5218216180801392</v>
       </c>
       <c r="F87" t="n">
-        <v>59</v>
+        <v>20.97</v>
       </c>
       <c r="G87" t="n">
-        <v>65.92</v>
+        <v>23.19</v>
       </c>
       <c r="H87" t="n">
-        <v>153924655</v>
+        <v>23204510</v>
       </c>
       <c r="I87" t="n">
-        <v>654613791</v>
+        <v>1119435009.3</v>
       </c>
       <c r="J87" t="n">
-        <v>2611340000</v>
+        <v>4975265156.219999</v>
       </c>
       <c r="K87" t="n">
-        <v>23.27286529541016</v>
+        <v>2.065877437591553</v>
       </c>
       <c r="L87" t="n">
-        <v>232</v>
+        <v>117</v>
       </c>
       <c r="M87" s="2" t="n">
-        <v>45315</v>
+        <v>45492</v>
       </c>
       <c r="N87" s="2" t="n">
-        <v>45315</v>
+        <v>45469</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -22714,7 +22714,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>电子元件</t>
+          <t>光伏设备</t>
         </is>
       </c>
     </row>
@@ -22727,43 +22727,43 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>603375</t>
+          <t>688530</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>盛景微</t>
+          <t>欧莱新材</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.7655231356620789</v>
+        <v>0.3456221222877502</v>
       </c>
       <c r="F88" t="n">
-        <v>35.54</v>
+        <v>17.42</v>
       </c>
       <c r="G88" t="n">
-        <v>38.8</v>
+        <v>20.83</v>
       </c>
       <c r="H88" t="n">
-        <v>38227901</v>
+        <v>17133389</v>
       </c>
       <c r="I88" t="n">
-        <v>715538690.36</v>
+        <v>557596187.72</v>
       </c>
       <c r="J88" t="n">
-        <v>3577693345.18</v>
+        <v>2787980834.08</v>
       </c>
       <c r="K88" t="n">
-        <v>5.320857524871826</v>
+        <v>3.061710834503174</v>
       </c>
       <c r="L88" t="n">
-        <v>232</v>
+        <v>117</v>
       </c>
       <c r="M88" s="2" t="n">
-        <v>45315</v>
+        <v>45492</v>
       </c>
       <c r="N88" s="2" t="n">
-        <v>45315</v>
+        <v>45421</v>
       </c>
       <c r="O88" t="n">
         <v>0</v>
@@ -22775,7 +22775,7 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>电子元件</t>
+          <t>半导体</t>
         </is>
       </c>
     </row>
@@ -22788,43 +22788,43 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>001379</t>
+          <t>688584</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>腾达科技</t>
+          <t>上海合晶</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-0.04909180104732513</v>
+        <v>0.7734806537628174</v>
       </c>
       <c r="F89" t="n">
-        <v>20.36</v>
+        <v>18.24</v>
       </c>
       <c r="G89" t="n">
-        <v>22.41</v>
+        <v>21.72</v>
       </c>
       <c r="H89" t="n">
-        <v>44831037</v>
+        <v>38353929</v>
       </c>
       <c r="I89" t="n">
-        <v>1018000000</v>
+        <v>1026630976.32</v>
       </c>
       <c r="J89" t="n">
-        <v>4072000000</v>
+        <v>12137960340.48</v>
       </c>
       <c r="K89" t="n">
-        <v>4.385950088500977</v>
+        <v>3.703310012817383</v>
       </c>
       <c r="L89" t="n">
-        <v>235</v>
+        <v>117</v>
       </c>
       <c r="M89" s="2" t="n">
-        <v>45310</v>
+        <v>45492</v>
       </c>
       <c r="N89" s="2" t="n">
-        <v>45310</v>
+        <v>45330</v>
       </c>
       <c r="O89" t="n">
         <v>0</v>
@@ -22836,7 +22836,7 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>半导体</t>
         </is>
       </c>
     </row>
@@ -22849,43 +22849,43 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>601033</t>
+          <t>688691</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>永兴股份</t>
+          <t>灿芯股份</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.4424778819084167</v>
+        <v>5.176260471343994</v>
       </c>
       <c r="F90" t="n">
-        <v>13.62</v>
+        <v>70.70999999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>14.92</v>
+        <v>80.68000000000001</v>
       </c>
       <c r="H90" t="n">
-        <v>59972194</v>
+        <v>271400576</v>
       </c>
       <c r="I90" t="n">
-        <v>2043000000</v>
+        <v>1803105000</v>
       </c>
       <c r="J90" t="n">
-        <v>12258000000</v>
+        <v>8485199999.999999</v>
       </c>
       <c r="K90" t="n">
-        <v>2.913345336914062</v>
+        <v>15.11844348907471</v>
       </c>
       <c r="L90" t="n">
-        <v>236</v>
+        <v>117</v>
       </c>
       <c r="M90" s="2" t="n">
-        <v>45309</v>
+        <v>45492</v>
       </c>
       <c r="N90" s="2" t="n">
-        <v>45309</v>
+        <v>45393</v>
       </c>
       <c r="O90" t="n">
         <v>0</v>
@@ -22897,7 +22897,7 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>环保行业</t>
+          <t>半导体</t>
         </is>
       </c>
     </row>
@@ -22910,43 +22910,43 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>301567</t>
+          <t>688692</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>贝隆精密</t>
+          <t>达梦数据</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>-0.4092440903186798</v>
+        <v>3.704968929290771</v>
       </c>
       <c r="F91" t="n">
-        <v>41.37</v>
+        <v>333.93</v>
       </c>
       <c r="G91" t="n">
-        <v>49.85</v>
+        <v>386.4</v>
       </c>
       <c r="H91" t="n">
-        <v>25945316</v>
+        <v>249751655</v>
       </c>
       <c r="I91" t="n">
-        <v>744660000</v>
+        <v>5075736000</v>
       </c>
       <c r="J91" t="n">
-        <v>2978640000</v>
+        <v>25378680000</v>
       </c>
       <c r="K91" t="n">
-        <v>3.460555553436279</v>
+        <v>4.916388034820557</v>
       </c>
       <c r="L91" t="n">
-        <v>238</v>
+        <v>117</v>
       </c>
       <c r="M91" s="2" t="n">
-        <v>45307</v>
+        <v>45492</v>
       </c>
       <c r="N91" s="2" t="n">
-        <v>45307</v>
+        <v>45455</v>
       </c>
       <c r="O91" t="n">
         <v>0</v>
@@ -22958,7 +22958,7 @@
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>消费电子</t>
+          <t>软件开发</t>
         </is>
       </c>
     </row>
@@ -22971,43 +22971,43 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>001387</t>
+          <t>688695</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>雪祺电气</t>
+          <t>中创股份</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-2.681721925735474</v>
+        <v>0.3884180784225464</v>
       </c>
       <c r="F92" t="n">
-        <v>13.79</v>
+        <v>28.43</v>
       </c>
       <c r="G92" t="n">
-        <v>15.59</v>
+        <v>33.98</v>
       </c>
       <c r="H92" t="n">
-        <v>78321380</v>
+        <v>12369273</v>
       </c>
       <c r="I92" t="n">
-        <v>612924130</v>
+        <v>544052429.23</v>
       </c>
       <c r="J92" t="n">
-        <v>2451696520</v>
+        <v>2418010676.54</v>
       </c>
       <c r="K92" t="n">
-        <v>12.77059459686279</v>
+        <v>2.267789840698242</v>
       </c>
       <c r="L92" t="n">
-        <v>241</v>
+        <v>117</v>
       </c>
       <c r="M92" s="2" t="n">
-        <v>45302</v>
+        <v>45492</v>
       </c>
       <c r="N92" s="2" t="n">
-        <v>45302</v>
+        <v>45364</v>
       </c>
       <c r="O92" t="n">
         <v>0</v>
@@ -23019,7 +23019,7 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>家电行业</t>
+          <t>软件开发</t>
         </is>
       </c>
     </row>
@@ -23032,43 +23032,43 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>603312</t>
+          <t>688709</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>西典新能</t>
+          <t>成都华微</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>-1.298299789428711</v>
+        <v>2.435530185699463</v>
       </c>
       <c r="F93" t="n">
-        <v>31.93</v>
+        <v>28.6</v>
       </c>
       <c r="G93" t="n">
-        <v>35.59</v>
+        <v>33.5</v>
       </c>
       <c r="H93" t="n">
-        <v>23766054</v>
+        <v>217047351</v>
       </c>
       <c r="I93" t="n">
-        <v>1113927924.66</v>
+        <v>2205552320.4</v>
       </c>
       <c r="J93" t="n">
-        <v>5159888000</v>
+        <v>18213824886.4</v>
       </c>
       <c r="K93" t="n">
-        <v>2.111414670944214</v>
+        <v>9.750491142272949</v>
       </c>
       <c r="L93" t="n">
-        <v>241</v>
+        <v>117</v>
       </c>
       <c r="M93" s="2" t="n">
-        <v>45302</v>
+        <v>45492</v>
       </c>
       <c r="N93" s="2" t="n">
-        <v>45302</v>
+        <v>45329</v>
       </c>
       <c r="O93" t="n">
         <v>0</v>
@@ -23080,7 +23080,7 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>电网设备</t>
+          <t>半导体</t>
         </is>
       </c>
     </row>
@@ -23093,43 +23093,43 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>603325</t>
+          <t>920002</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>博隆技术</t>
+          <t>万达轴承</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>-0.8287292718887329</v>
+        <v>2.149574756622314</v>
       </c>
       <c r="F94" t="n">
-        <v>71.8</v>
+        <v>68.43000000000001</v>
       </c>
       <c r="G94" t="n">
-        <v>79.64</v>
+        <v>87.08</v>
       </c>
       <c r="H94" t="n">
-        <v>17645241</v>
+        <v>69057099</v>
       </c>
       <c r="I94" t="n">
-        <v>1196906000</v>
+        <v>393472500.0000001</v>
       </c>
       <c r="J94" t="n">
-        <v>4786906000</v>
+        <v>2224120071.6</v>
       </c>
       <c r="K94" t="n">
-        <v>1.469106197357178</v>
+        <v>17.71088790893555</v>
       </c>
       <c r="L94" t="n">
-        <v>242</v>
+        <v>117</v>
       </c>
       <c r="M94" s="2" t="n">
-        <v>45301</v>
+        <v>45492</v>
       </c>
       <c r="N94" s="2" t="n">
-        <v>45301</v>
+        <v>45442</v>
       </c>
       <c r="O94" t="n">
         <v>0</v>
